--- a/media/uploads/raw data.xlsx
+++ b/media/uploads/raw data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohit\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1068D811-09F8-47BB-AF6B-0476FD7E17FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCA63A1-C08F-48A3-9040-BB6A4BC14E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C1056F8F-FD51-41F3-90C2-CA04A07874A6}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t xml:space="preserve">Amit Prithyani </t>
   </si>
   <si>
-    <t>Mohit Narnaware</t>
+    <t xml:space="preserve">Raja </t>
   </si>
   <si>
-    <t>Mansi Patle</t>
+    <t>Shiva Singh</t>
   </si>
 </sst>
 </file>
@@ -403,13 +403,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -433,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9359463350</v>
+        <v>9665054000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -441,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>7441186993</v>
+        <v>9096853431</v>
       </c>
     </row>
   </sheetData>
